--- a/regions/3/biznes seqtori/saqmianobis mikhedvit_nace rev.2.xlsx
+++ b/regions/3/biznes seqtori/saqmianobis mikhedvit_nace rev.2.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54E08AE-732F-45FD-9CE2-2C04245F1BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,10 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="26">
-  <si>
-    <t>ბიზენს სექტორი</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="26">
   <si>
     <t>გურია</t>
   </si>
@@ -93,11 +91,14 @@
   <si>
     <t>...</t>
   </si>
+  <si>
+    <t>ბიზნეს სექტორი</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#.0;\-#.0;\-"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
@@ -184,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -224,6 +225,12 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -318,6 +325,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -353,6 +377,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -528,10 +569,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P89"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M48" sqref="M48"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -540,17 +583,17 @@
     <col min="15" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="7">
         <v>2006</v>
@@ -597,10 +640,16 @@
       <c r="P5" s="8">
         <v>2020</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q5" s="8">
+        <v>2021</v>
+      </c>
+      <c r="R5" s="8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" s="9">
         <v>79.400000000000006</v>
@@ -647,10 +696,16 @@
       <c r="P6" s="11">
         <v>542.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q6" s="11">
+        <v>637.4</v>
+      </c>
+      <c r="R6" s="11">
+        <v>710.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="12">
         <v>0.1</v>
@@ -697,10 +752,16 @@
       <c r="P7" s="13">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q7" s="13">
+        <v>13.7</v>
+      </c>
+      <c r="R7" s="13">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="12">
         <v>3.3</v>
@@ -747,10 +808,16 @@
       <c r="P8" s="13">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q8" s="13">
+        <v>23.3</v>
+      </c>
+      <c r="R8" s="13">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="12">
         <v>35.6</v>
@@ -797,110 +864,128 @@
       <c r="P9" s="13">
         <v>190.3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q9" s="13">
+        <v>215.6</v>
+      </c>
+      <c r="R9" s="13">
+        <v>243.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="O10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="R10" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="30" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="M10" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="N10" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="O10" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="P10" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="30" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="B11" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M11" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N11" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O11" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P11" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="Q11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="R11" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" s="12">
         <v>13.5</v>
@@ -947,10 +1032,16 @@
       <c r="P12" s="13">
         <v>49.7</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="Q12" s="13">
+        <v>53.3</v>
+      </c>
+      <c r="R12" s="13">
+        <v>81.099999999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="30" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="12">
         <v>20.2</v>
@@ -997,10 +1088,16 @@
       <c r="P13" s="13">
         <v>181.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q13" s="13">
+        <v>182.2</v>
+      </c>
+      <c r="R13" s="13">
+        <v>195.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="12">
         <v>0.7</v>
@@ -1047,10 +1144,16 @@
       <c r="P14" s="13">
         <v>29.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="Q14" s="13">
+        <v>50</v>
+      </c>
+      <c r="R14" s="13">
+        <v>33.799999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="30" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="12">
         <v>1.3</v>
@@ -1097,10 +1200,16 @@
       <c r="P15" s="13">
         <v>21.7</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q15" s="13">
+        <v>46</v>
+      </c>
+      <c r="R15" s="13">
+        <v>51.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="12">
         <v>0.8</v>
@@ -1147,10 +1256,16 @@
       <c r="P16" s="13">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q16" s="13">
+        <v>4.2</v>
+      </c>
+      <c r="R16" s="13">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="12">
         <v>0.5</v>
@@ -1197,10 +1312,16 @@
       <c r="P17" s="12">
         <v>17.7</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q17" s="12">
+        <v>16.5</v>
+      </c>
+      <c r="R17" s="12">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="12">
         <v>0.1</v>
@@ -1247,10 +1368,16 @@
       <c r="P18" s="13">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q18" s="13">
+        <v>3.3</v>
+      </c>
+      <c r="R18" s="13">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="12">
         <v>0</v>
@@ -1297,10 +1424,16 @@
       <c r="P19" s="13">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q19" s="13">
+        <v>5.8</v>
+      </c>
+      <c r="R19" s="13">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" s="12">
         <v>0.1</v>
@@ -1318,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H20" s="13">
         <v>0</v>
@@ -1347,10 +1480,16 @@
       <c r="P20" s="13">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q20" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="R20" s="13">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="12">
         <v>2.4</v>
@@ -1397,13 +1536,19 @@
       <c r="P21" s="13">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q21" s="13">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="R21" s="13">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="12">
         <v>0</v>
@@ -1447,10 +1592,16 @@
       <c r="P22" s="13">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q22" s="13">
+        <v>1.7</v>
+      </c>
+      <c r="R22" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="12">
         <v>0</v>
@@ -1468,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H23" s="13">
         <v>0.1</v>
@@ -1497,21 +1648,27 @@
       <c r="P23" s="13">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q23" s="13">
+        <v>1</v>
+      </c>
+      <c r="R23" s="13">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="7">
         <v>2006</v>
@@ -1558,10 +1715,16 @@
       <c r="P27" s="8">
         <v>2020</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q27" s="8">
+        <v>2021</v>
+      </c>
+      <c r="R27" s="8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B28" s="9">
         <v>62.1</v>
@@ -1608,10 +1771,16 @@
       <c r="P28" s="11">
         <v>405</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q28" s="11">
+        <v>508.6</v>
+      </c>
+      <c r="R28" s="11">
+        <v>565.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B29" s="12">
         <v>0.1</v>
@@ -1658,10 +1827,16 @@
       <c r="P29" s="13">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q29" s="13">
+        <v>15.8</v>
+      </c>
+      <c r="R29" s="13">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30" s="12">
         <v>3.2</v>
@@ -1708,10 +1883,16 @@
       <c r="P30" s="13">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q30" s="13">
+        <v>23</v>
+      </c>
+      <c r="R30" s="13">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31" s="12">
         <v>36.200000000000003</v>
@@ -1758,110 +1939,128 @@
       <c r="P31" s="13">
         <v>188</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q31" s="13">
+        <v>211.7</v>
+      </c>
+      <c r="R31" s="13">
+        <v>239.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B32" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J32" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K32" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L32" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="M32" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="N32" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="O32" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="P32" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q32" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="R32" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="30" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I32" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="J32" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="K32" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L32" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="M32" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="N32" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="O32" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="P32" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="30" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="B33" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I33" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K33" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L33" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M33" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N33" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O33" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P33" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="Q33" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="R33" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34" s="12">
         <v>13.5</v>
@@ -1908,10 +2107,16 @@
       <c r="P34" s="13">
         <v>62.6</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="Q34" s="13">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="R34" s="13">
+        <v>81.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="30" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B35" s="12">
         <v>2.4</v>
@@ -1958,10 +2163,16 @@
       <c r="P35" s="13">
         <v>29.7</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q35" s="13">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="R35" s="13">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B36" s="12">
         <v>0.7</v>
@@ -2008,10 +2219,16 @@
       <c r="P36" s="13">
         <v>22.9</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="Q36" s="13">
+        <v>44.6</v>
+      </c>
+      <c r="R36" s="13">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="30" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B37" s="12">
         <v>1.3</v>
@@ -2058,10 +2275,16 @@
       <c r="P37" s="13">
         <v>21.7</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q37" s="13">
+        <v>46</v>
+      </c>
+      <c r="R37" s="13">
+        <v>51.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B38" s="12">
         <v>0.5</v>
@@ -2108,10 +2331,16 @@
       <c r="P38" s="13">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q38" s="13">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="R38" s="13">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B39" s="12">
         <v>0.6</v>
@@ -2158,10 +2387,16 @@
       <c r="P39" s="12">
         <v>17.7</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q39" s="12">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="R39" s="12">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B40" s="12">
         <v>0.1</v>
@@ -2208,10 +2443,16 @@
       <c r="P40" s="13">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q40" s="13">
+        <v>3.1</v>
+      </c>
+      <c r="R40" s="13">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B41" s="12">
         <v>0</v>
@@ -2258,10 +2499,16 @@
       <c r="P41" s="13">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q41" s="13">
+        <v>5.5</v>
+      </c>
+      <c r="R41" s="13">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B42" s="12">
         <v>0.1</v>
@@ -2279,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H42" s="13">
         <v>0</v>
@@ -2308,10 +2555,16 @@
       <c r="P42" s="13">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q42" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="R42" s="13">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B43" s="12">
         <v>2.6</v>
@@ -2358,13 +2611,19 @@
       <c r="P43" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q43" s="13">
+        <v>5.9</v>
+      </c>
+      <c r="R43" s="13">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C44" s="12">
         <v>0</v>
@@ -2408,10 +2667,16 @@
       <c r="P44" s="13">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q44" s="13">
+        <v>10.8</v>
+      </c>
+      <c r="R44" s="13">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B45" s="12">
         <v>0</v>
@@ -2429,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H45" s="13">
         <v>0.1</v>
@@ -2458,13 +2723,19 @@
       <c r="P45" s="13">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q45" s="13">
+        <v>1</v>
+      </c>
+      <c r="R45" s="13">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="7">
         <v>2006</v>
@@ -2511,10 +2782,16 @@
       <c r="P49" s="8">
         <v>2020</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q49" s="8">
+        <v>2021</v>
+      </c>
+      <c r="R49" s="8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B50" s="14">
         <v>5024</v>
@@ -2561,10 +2838,16 @@
       <c r="P50" s="14">
         <v>8121.6</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q50" s="14">
+        <v>8667</v>
+      </c>
+      <c r="R50" s="16">
+        <v>9099</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B51" s="15">
         <v>45</v>
@@ -2611,10 +2894,16 @@
       <c r="P51" s="15">
         <v>204</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q51" s="15">
+        <v>252</v>
+      </c>
+      <c r="R51" s="15">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B52" s="15">
         <v>212</v>
@@ -2661,10 +2950,16 @@
       <c r="P52" s="15">
         <v>271</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q52" s="15">
+        <v>359</v>
+      </c>
+      <c r="R52" s="15">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B53" s="15">
         <v>902</v>
@@ -2711,110 +3006,128 @@
       <c r="P53" s="15">
         <v>1399.3</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q53" s="15">
+        <v>1597</v>
+      </c>
+      <c r="R53" s="15">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B54" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H54" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I54" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J54" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K54" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L54" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M54" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N54" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="O54" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="P54" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q54" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="R54" s="15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" ht="30" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F54" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G54" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H54" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="I54" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="J54" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="K54" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="L54" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="M54" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="N54" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="O54" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="P54" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" ht="30" x14ac:dyDescent="0.3">
-      <c r="A55" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="B55" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H55" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I55" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J55" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K55" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L55" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M55" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N55" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O55" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P55" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="Q55" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="R55" s="15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B56" s="15">
         <v>791</v>
@@ -2861,10 +3174,16 @@
       <c r="P56" s="15">
         <v>707.6</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="Q56" s="15">
+        <v>794</v>
+      </c>
+      <c r="R56" s="15">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" ht="30" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B57" s="15">
         <v>884</v>
@@ -2911,10 +3230,16 @@
       <c r="P57" s="15">
         <v>1728.3</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q57" s="15">
+        <v>1914</v>
+      </c>
+      <c r="R57" s="15">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B58" s="15">
         <v>141</v>
@@ -2961,10 +3286,16 @@
       <c r="P58" s="15">
         <v>757.8</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="Q58" s="15">
+        <v>912</v>
+      </c>
+      <c r="R58" s="15">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" ht="30" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B59" s="15">
         <v>245</v>
@@ -3011,10 +3342,16 @@
       <c r="P59" s="15">
         <v>1216</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q59" s="15">
+        <v>1221</v>
+      </c>
+      <c r="R59" s="15">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B60" s="15">
         <v>207</v>
@@ -3061,10 +3398,16 @@
       <c r="P60" s="15">
         <v>287</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q60" s="15">
+        <v>295</v>
+      </c>
+      <c r="R60" s="15">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B61" s="15">
         <v>132</v>
@@ -3111,10 +3454,16 @@
       <c r="P61" s="15">
         <v>482</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q61" s="15">
+        <v>246</v>
+      </c>
+      <c r="R61" s="17">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B62" s="15">
         <v>58</v>
@@ -3161,10 +3510,16 @@
       <c r="P62" s="15">
         <v>156.6</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q62" s="15">
+        <v>153</v>
+      </c>
+      <c r="R62" s="15">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B63" s="15">
         <v>11</v>
@@ -3211,10 +3566,16 @@
       <c r="P63" s="15">
         <v>77</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q63" s="15">
+        <v>88</v>
+      </c>
+      <c r="R63" s="15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B64" s="15">
         <v>110</v>
@@ -3229,16 +3590,16 @@
         <v>24</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G64" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H64" s="15">
         <v>12</v>
       </c>
       <c r="I64" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J64" s="15">
         <v>11</v>
@@ -3261,10 +3622,16 @@
       <c r="P64" s="15">
         <v>6</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q64" s="15">
+        <v>8</v>
+      </c>
+      <c r="R64" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B65" s="15">
         <v>1173</v>
@@ -3311,13 +3678,19 @@
       <c r="P65" s="15">
         <v>370</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q65" s="15">
+        <v>397</v>
+      </c>
+      <c r="R65" s="15">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C66" s="15">
         <v>20</v>
@@ -3361,10 +3734,16 @@
       <c r="P66" s="15">
         <v>285</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q66" s="15">
+        <v>236</v>
+      </c>
+      <c r="R66" s="15">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B67" s="15">
         <v>16</v>
@@ -3382,7 +3761,7 @@
         <v>15</v>
       </c>
       <c r="G67" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H67" s="15">
         <v>7</v>
@@ -3411,13 +3790,19 @@
       <c r="P67" s="15">
         <v>41</v>
       </c>
-    </row>
-    <row r="69" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q67" s="15">
+        <v>71</v>
+      </c>
+      <c r="R67" s="15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" s="7">
         <v>2006</v>
@@ -3464,10 +3849,16 @@
       <c r="P71" s="8">
         <v>2020</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q71" s="8">
+        <v>2021</v>
+      </c>
+      <c r="R71" s="8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B72" s="9">
         <v>120.2</v>
@@ -3514,10 +3905,16 @@
       <c r="P72" s="11">
         <v>708.1</v>
       </c>
-    </row>
-    <row r="73" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q72" s="11">
+        <v>763.4</v>
+      </c>
+      <c r="R72" s="11">
+        <v>951.1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B73" s="12">
         <v>29.3</v>
@@ -3564,10 +3961,16 @@
       <c r="P73" s="13">
         <v>788.9</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q73" s="13">
+        <v>772.2</v>
+      </c>
+      <c r="R73" s="13">
+        <v>1296.0999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B74" s="12">
         <v>163.80000000000001</v>
@@ -3614,10 +4017,16 @@
       <c r="P74" s="13">
         <v>1303.3</v>
       </c>
-    </row>
-    <row r="75" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q74" s="13">
+        <v>1023.6</v>
+      </c>
+      <c r="R74" s="13">
+        <v>1226.2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B75" s="12">
         <v>123.1</v>
@@ -3664,110 +4073,128 @@
       <c r="P75" s="13">
         <v>931.6</v>
       </c>
-    </row>
-    <row r="76" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q75" s="13">
+        <v>899.5</v>
+      </c>
+      <c r="R75" s="13">
+        <v>1184.2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B76" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G76" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H76" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I76" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J76" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K76" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L76" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="M76" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="N76" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="O76" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="P76" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q76" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="R76" s="13">
+        <v>2628.8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" ht="30" x14ac:dyDescent="0.3">
+      <c r="A77" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C76" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D76" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E76" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F76" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G76" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H76" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I76" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="J76" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="K76" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L76" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="M76" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="N76" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="O76" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="P76" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" ht="30" x14ac:dyDescent="0.3">
-      <c r="A77" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="B77" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F77" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G77" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I77" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J77" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K77" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L77" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M77" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N77" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O77" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P77" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="Q77" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="R77" s="13">
+        <v>680.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B78" s="12">
         <v>214.3</v>
@@ -3814,10 +4241,16 @@
       <c r="P78" s="13">
         <v>742.6</v>
       </c>
-    </row>
-    <row r="79" spans="1:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="Q78" s="13">
+        <v>864.3</v>
+      </c>
+      <c r="R78" s="13">
+        <v>1418.7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" ht="30" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B79" s="12">
         <v>77.099999999999994</v>
@@ -3864,10 +4297,16 @@
       <c r="P79" s="13">
         <v>394</v>
       </c>
-    </row>
-    <row r="80" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q79" s="13">
+        <v>425</v>
+      </c>
+      <c r="R79" s="13">
+        <v>499.2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B80" s="12">
         <v>83.7</v>
@@ -3914,10 +4353,16 @@
       <c r="P80" s="13">
         <v>405.1</v>
       </c>
-    </row>
-    <row r="81" spans="1:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="Q80" s="13">
+        <v>477.5</v>
+      </c>
+      <c r="R80" s="13">
+        <v>773.2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" ht="30" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B81" s="12">
         <v>90.9</v>
@@ -3964,10 +4409,16 @@
       <c r="P81" s="13">
         <v>646.6</v>
       </c>
-    </row>
-    <row r="82" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q81" s="13">
+        <v>693</v>
+      </c>
+      <c r="R81" s="13">
+        <v>926.6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B82" s="12">
         <v>79.7</v>
@@ -4014,10 +4465,16 @@
       <c r="P82" s="13">
         <v>358.1</v>
       </c>
-    </row>
-    <row r="83" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q82" s="13">
+        <v>482.8</v>
+      </c>
+      <c r="R82" s="13">
+        <v>294.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B83" s="12">
         <v>106</v>
@@ -4064,10 +4521,16 @@
       <c r="P83" s="12">
         <v>441.5</v>
       </c>
-    </row>
-    <row r="84" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q83" s="12">
+        <v>826.2</v>
+      </c>
+      <c r="R83" s="12">
+        <v>614.70000000000005</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B84" s="12">
         <v>67</v>
@@ -4114,10 +4577,16 @@
       <c r="P84" s="13">
         <v>690.5</v>
       </c>
-    </row>
-    <row r="85" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q84" s="13">
+        <v>820.4</v>
+      </c>
+      <c r="R84" s="13">
+        <v>872.6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B85" s="12">
         <v>92.4</v>
@@ -4164,10 +4633,16 @@
       <c r="P85" s="13">
         <v>936.3</v>
       </c>
-    </row>
-    <row r="86" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q85" s="13">
+        <v>1067.9000000000001</v>
+      </c>
+      <c r="R85" s="13">
+        <v>1262.7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B86" s="12">
         <v>55.8</v>
@@ -4182,16 +4657,16 @@
         <v>73.5</v>
       </c>
       <c r="F86" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G86" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H86" s="13">
         <v>114.1</v>
       </c>
       <c r="I86" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J86" s="13">
         <v>41.1</v>
@@ -4214,10 +4689,16 @@
       <c r="P86" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q86" s="13">
+        <v>62.3</v>
+      </c>
+      <c r="R86" s="13">
+        <v>83.3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B87" s="12">
         <v>92.9</v>
@@ -4264,13 +4745,19 @@
       <c r="P87" s="13">
         <v>540.70000000000005</v>
       </c>
-    </row>
-    <row r="88" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q87" s="13">
+        <v>609.6</v>
+      </c>
+      <c r="R87" s="13">
+        <v>716.9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C88" s="12">
         <v>29.8</v>
@@ -4314,10 +4801,16 @@
       <c r="P88" s="13">
         <v>1050.2</v>
       </c>
-    </row>
-    <row r="89" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q88" s="13">
+        <v>1342.7</v>
+      </c>
+      <c r="R88" s="13">
+        <v>1157.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B89" s="12">
         <v>40.5</v>
@@ -4335,7 +4828,7 @@
         <v>35</v>
       </c>
       <c r="G89" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H89" s="13">
         <v>162.5</v>
@@ -4363,6 +4856,12 @@
       </c>
       <c r="P89" s="13">
         <v>69.8</v>
+      </c>
+      <c r="Q89" s="13">
+        <v>0</v>
+      </c>
+      <c r="R89" s="13">
+        <v>833</v>
       </c>
     </row>
   </sheetData>
